--- a/Parcial/Final/excel/Gacha Revenue.xlsx
+++ b/Parcial/Final/excel/Gacha Revenue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\F503_LRD\Parcial\Final\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\F503\Parcial\Final\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A873EAD-FFBD-44F5-9BD7-CB45210AB516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999BDB48-E7AD-480C-A805-E3CCF733C0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7E1064C5-ABF5-4493-985A-7684AC562E89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7E1064C5-ABF5-4493-985A-7684AC562E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos01" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +451,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,19 +517,34 @@
       <c r="A2" s="1">
         <v>44918</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>68000000</v>
       </c>
       <c r="D2">
-        <f>SUM(B2:C2)</f>
+        <f t="shared" ref="D2:D18" si="0">SUM(B2:C2)</f>
         <v>68000000</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
         <f>SUM(E2:F2)</f>
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2">
-        <f t="shared" ref="J2:J17" si="0">SUM(H2:I2)</f>
+        <f t="shared" ref="J2:J17" si="1">SUM(H2:I2)</f>
         <v>0</v>
       </c>
       <c r="K2">
@@ -538,7 +554,7 @@
         <v>700000</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M17" si="1">SUM(K2:L2)</f>
+        <f t="shared" ref="M2:M17" si="2">SUM(K2:L2)</f>
         <v>1100000</v>
       </c>
     </row>
@@ -546,19 +562,34 @@
       <c r="A3" s="1">
         <v>44949</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>63000000</v>
       </c>
       <c r="D3">
-        <f>SUM(B3:C3)</f>
+        <f t="shared" si="0"/>
         <v>63000000</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G18" si="2">SUM(E3:F3)</f>
+        <f t="shared" ref="G3:G18" si="3">SUM(E3:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K3">
@@ -568,7 +599,7 @@
         <v>1100000</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1500000</v>
       </c>
     </row>
@@ -576,19 +607,34 @@
       <c r="A4" s="1">
         <v>44980</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>67000000</v>
       </c>
       <c r="D4">
-        <f>SUM(B4:C4)</f>
+        <f t="shared" si="0"/>
         <v>67000000</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4">
@@ -598,7 +644,7 @@
         <v>400000</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>900000</v>
       </c>
     </row>
@@ -606,19 +652,34 @@
       <c r="A5" s="1">
         <v>45008</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>47000000</v>
       </c>
       <c r="D5">
-        <f>SUM(B5:C5)</f>
+        <f t="shared" si="0"/>
         <v>47000000</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5">
@@ -628,7 +689,7 @@
         <v>600000</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
     </row>
@@ -636,22 +697,34 @@
       <c r="A6" s="1">
         <v>45039</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>48000000</v>
       </c>
       <c r="D6">
-        <f>SUM(B6:C6)</f>
+        <f t="shared" si="0"/>
         <v>48000000</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
         <v>20000000</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000000</v>
       </c>
       <c r="K6">
@@ -661,7 +734,7 @@
         <v>500000</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
     </row>
@@ -669,22 +742,34 @@
       <c r="A7" s="1">
         <v>45069</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>34000000</v>
       </c>
       <c r="D7">
-        <f>SUM(B7:C7)</f>
+        <f t="shared" si="0"/>
         <v>34000000</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
         <v>81000000</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81000000</v>
       </c>
       <c r="K7">
@@ -694,7 +779,7 @@
         <v>700000</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
     </row>
@@ -702,11 +787,14 @@
       <c r="A8" s="1">
         <v>45100</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>32000000</v>
       </c>
       <c r="D8">
-        <f>SUM(B8:C8)</f>
+        <f t="shared" si="0"/>
         <v>32000000</v>
       </c>
       <c r="E8">
@@ -716,14 +804,17 @@
         <v>800000</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1300000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8">
         <v>58000000</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58000000</v>
       </c>
       <c r="K8">
@@ -733,7 +824,7 @@
         <v>500000</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700000</v>
       </c>
     </row>
@@ -741,11 +832,14 @@
       <c r="A9" s="1">
         <v>45130</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>32000000</v>
       </c>
       <c r="D9">
-        <f>SUM(B9:C9)</f>
+        <f t="shared" si="0"/>
         <v>32000000</v>
       </c>
       <c r="E9">
@@ -755,14 +849,17 @@
         <v>1300000</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2100000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9">
         <v>41000000</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41000000</v>
       </c>
       <c r="K9">
@@ -772,7 +869,7 @@
         <v>800000</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
     </row>
@@ -780,11 +877,14 @@
       <c r="A10" s="1">
         <v>45161</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>32000000</v>
       </c>
       <c r="D10">
-        <f>SUM(B10:C10)</f>
+        <f t="shared" si="0"/>
         <v>32000000</v>
       </c>
       <c r="E10">
@@ -794,14 +894,17 @@
         <v>1500000</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2900000</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10">
         <v>49000000</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49000000</v>
       </c>
       <c r="K10">
@@ -811,7 +914,7 @@
         <v>400000</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>800000</v>
       </c>
     </row>
@@ -819,11 +922,14 @@
       <c r="A11" s="1">
         <v>45192</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>39000000</v>
       </c>
       <c r="D11">
-        <f>SUM(B11:C11)</f>
+        <f t="shared" si="0"/>
         <v>39000000</v>
       </c>
       <c r="E11">
@@ -833,14 +939,17 @@
         <v>900000</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1500000</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11">
         <v>40000000</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40000000</v>
       </c>
       <c r="K11">
@@ -850,7 +959,7 @@
         <v>600000</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1300000</v>
       </c>
     </row>
@@ -858,11 +967,14 @@
       <c r="A12" s="1">
         <v>45222</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>39000000</v>
       </c>
       <c r="D12">
-        <f>SUM(B12:C12)</f>
+        <f t="shared" si="0"/>
         <v>39000000</v>
       </c>
       <c r="E12">
@@ -872,14 +984,17 @@
         <v>800000</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1500000</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="I12">
         <v>45000000</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45000000</v>
       </c>
       <c r="K12">
@@ -889,7 +1004,7 @@
         <v>700000</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
     </row>
@@ -897,11 +1012,14 @@
       <c r="A13" s="1">
         <v>45253</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>54000000</v>
       </c>
       <c r="D13">
-        <f>SUM(B13:C13)</f>
+        <f t="shared" si="0"/>
         <v>54000000</v>
       </c>
       <c r="E13">
@@ -911,14 +1029,17 @@
         <v>900000</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1500000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13">
         <v>19000000</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19000000</v>
       </c>
       <c r="K13">
@@ -928,7 +1049,7 @@
         <v>300000</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
     </row>
@@ -936,11 +1057,14 @@
       <c r="A14" s="1">
         <v>45283</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>31000000</v>
       </c>
       <c r="D14">
-        <f>SUM(B14:C14)</f>
+        <f t="shared" si="0"/>
         <v>31000000</v>
       </c>
       <c r="E14">
@@ -950,14 +1074,17 @@
         <v>1100000</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1800000</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14">
         <v>28000000</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28000000</v>
       </c>
       <c r="K14">
@@ -967,7 +1094,7 @@
         <v>500000</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
     </row>
@@ -975,11 +1102,14 @@
       <c r="A15" s="1">
         <v>45314</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>36000000</v>
       </c>
       <c r="D15">
-        <f>SUM(B15:C15)</f>
+        <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
       <c r="E15">
@@ -989,14 +1119,17 @@
         <v>1000000</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1700000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15">
         <v>20000000</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000000</v>
       </c>
       <c r="K15">
@@ -1006,7 +1139,7 @@
         <v>500000</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700000</v>
       </c>
     </row>
@@ -1014,11 +1147,14 @@
       <c r="A16" s="1">
         <v>45345</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>35000000</v>
       </c>
       <c r="D16">
-        <f>SUM(B16:C16)</f>
+        <f t="shared" si="0"/>
         <v>35000000</v>
       </c>
       <c r="E16">
@@ -1028,14 +1164,17 @@
         <v>600000</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900000</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16">
         <v>32000000</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32000000</v>
       </c>
       <c r="K16">
@@ -1045,7 +1184,7 @@
         <v>1000000</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
     </row>
@@ -1053,11 +1192,14 @@
       <c r="A17" s="1">
         <v>45374</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>24000000</v>
       </c>
       <c r="D17">
-        <f>SUM(B17:C17)</f>
+        <f t="shared" si="0"/>
         <v>24000000</v>
       </c>
       <c r="E17">
@@ -1067,14 +1209,17 @@
         <v>1300000</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2300000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17">
         <v>48000000</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48000000</v>
       </c>
       <c r="K17">
@@ -1084,7 +1229,7 @@
         <v>900000</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
     </row>
@@ -1092,11 +1237,14 @@
       <c r="A18" s="1">
         <v>45405</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>37000000</v>
       </c>
       <c r="D18">
-        <f>SUM(B18:C18)</f>
+        <f t="shared" si="0"/>
         <v>37000000</v>
       </c>
       <c r="E18">
@@ -1106,8 +1254,11 @@
         <v>600000</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1100000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18">
         <v>43000000</v>
